--- a/data/fakecsv/dept_LYFT.xlsx
+++ b/data/fakecsv/dept_LYFT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="111">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,277 +40,286 @@
     <t>LYFT</t>
   </si>
   <si>
-    <t>JJ9LXHRD33DE76U0W</t>
-  </si>
-  <si>
-    <t>C7Z7VDEL1X3TX5MSE</t>
-  </si>
-  <si>
-    <t>UW6N1X4B1DR0GGN9V</t>
-  </si>
-  <si>
-    <t>1ZN8RSMY6UMBF0M4R</t>
-  </si>
-  <si>
-    <t>2T68E6W88L31NKAE0</t>
-  </si>
-  <si>
-    <t>XC5SJFNG06NMTWUS9</t>
-  </si>
-  <si>
-    <t>KGJPP3293FM21EX5N</t>
-  </si>
-  <si>
-    <t>YR9CN57E0M9PT9P8Y</t>
-  </si>
-  <si>
-    <t>GW82PAXH4RR8R4PL4</t>
-  </si>
-  <si>
-    <t>7XEVUJ845S8VP2XS9</t>
-  </si>
-  <si>
-    <t>XJF1EB3K8KNSKBLVL</t>
-  </si>
-  <si>
-    <t>LCNVEYFWXXFTBH1AV</t>
-  </si>
-  <si>
-    <t>WVM3XEMY5H0JJK6U3</t>
-  </si>
-  <si>
-    <t>GFW08PTJ2KKST7B4M</t>
-  </si>
-  <si>
-    <t>DHKVXN2Y4PPTNUDD9</t>
-  </si>
-  <si>
-    <t>WRMFE3R65YLG4GLNM</t>
-  </si>
-  <si>
-    <t>86BFHBDR2PK4MXFTP</t>
-  </si>
-  <si>
-    <t>LXZW2ANW0ACPP2ZKS</t>
-  </si>
-  <si>
-    <t>VY38CZ660MT322DX1</t>
-  </si>
-  <si>
-    <t>PJNT8MDW9882192EH</t>
-  </si>
-  <si>
-    <t>NCX9GG5F6C0EMYVGF</t>
-  </si>
-  <si>
-    <t>1MJX0HY25LZF6T11V</t>
-  </si>
-  <si>
-    <t>5X31C81C7UT2SBP6K</t>
-  </si>
-  <si>
-    <t>TE9XR8542F4691T0R</t>
-  </si>
-  <si>
-    <t>Y0KV9JUL1E98AEAGW</t>
-  </si>
-  <si>
-    <t>7CUUPF2T9SG9PZE64</t>
-  </si>
-  <si>
-    <t>VJT0M7GG3GRKC5YDN</t>
-  </si>
-  <si>
-    <t>G59YPETW6LVB7CYDP</t>
-  </si>
-  <si>
-    <t>SEB8YF5812AA8HXY7</t>
-  </si>
-  <si>
-    <t>7XNVH3ZZ9U4L26SSL</t>
-  </si>
-  <si>
-    <t>MJT8BLAD6EYB57198</t>
-  </si>
-  <si>
-    <t>0HETN1PTXK6G9694A</t>
-  </si>
-  <si>
-    <t>D4P2SKU43N1YPWF6A</t>
-  </si>
-  <si>
-    <t>XDZT7S345KCZWG9WK</t>
-  </si>
-  <si>
-    <t>8N0EXTVY1MBRAKL6Z</t>
-  </si>
-  <si>
-    <t>AJEXMFMZ25UC48T68</t>
-  </si>
-  <si>
-    <t>2K5KLKL31LLK6DP7K</t>
-  </si>
-  <si>
-    <t>PXA3SPPBXJ9EEPHY1</t>
-  </si>
-  <si>
-    <t>CJB7TPBU5E8ZYBMJM</t>
-  </si>
-  <si>
-    <t>L8P6MZ2M6P1ERHCNJ</t>
-  </si>
-  <si>
-    <t>AB1R3TX61E38AL5JH</t>
-  </si>
-  <si>
-    <t>B64VE66G5098ASV0E</t>
-  </si>
-  <si>
-    <t>H622ZT5P86KKVPW1D</t>
-  </si>
-  <si>
-    <t>1KRFPJ5L804MK0CWB</t>
-  </si>
-  <si>
-    <t>P94BHAVU9HB5P0K11</t>
-  </si>
-  <si>
-    <t>RYJ9BMCR1E00SF2RA</t>
-  </si>
-  <si>
-    <t>Kenneth Lowe</t>
-  </si>
-  <si>
-    <t>David Frey</t>
-  </si>
-  <si>
-    <t>Tara Fuller</t>
-  </si>
-  <si>
-    <t>John Ramsey</t>
-  </si>
-  <si>
-    <t>Scott Blair</t>
-  </si>
-  <si>
-    <t>Mark Gutierrez</t>
-  </si>
-  <si>
-    <t>Kim Bailey</t>
-  </si>
-  <si>
-    <t>Rebecca Conner</t>
-  </si>
-  <si>
-    <t>Tracy Hatfield</t>
-  </si>
-  <si>
-    <t>Thomas James</t>
-  </si>
-  <si>
-    <t>Amy Reed</t>
-  </si>
-  <si>
-    <t>Ronald Kelly</t>
-  </si>
-  <si>
-    <t>Steven Robinson</t>
-  </si>
-  <si>
-    <t>Laurie Miller</t>
-  </si>
-  <si>
-    <t>Hannah Moore</t>
-  </si>
-  <si>
-    <t>Caleb Cooke</t>
-  </si>
-  <si>
-    <t>Matthew Andrews</t>
-  </si>
-  <si>
-    <t>Andrew Myers</t>
-  </si>
-  <si>
-    <t>Jeffrey Hamilton</t>
-  </si>
-  <si>
-    <t>Tammy Schwartz</t>
-  </si>
-  <si>
-    <t>Kevin Drake</t>
-  </si>
-  <si>
-    <t>Kevin Rollins</t>
-  </si>
-  <si>
-    <t>Denise Smith</t>
-  </si>
-  <si>
-    <t>Robert Ortega</t>
-  </si>
-  <si>
-    <t>Jason Stuart</t>
-  </si>
-  <si>
-    <t>Robert Green</t>
-  </si>
-  <si>
-    <t>Robert Rowe</t>
-  </si>
-  <si>
-    <t>Chad Gordon MD</t>
-  </si>
-  <si>
-    <t>Justin Klein</t>
-  </si>
-  <si>
-    <t>Lisa Craig</t>
-  </si>
-  <si>
-    <t>Mary Mccann</t>
-  </si>
-  <si>
-    <t>Cassidy Sweeney</t>
-  </si>
-  <si>
-    <t>Michael Wagner</t>
-  </si>
-  <si>
-    <t>Michael Cruz</t>
-  </si>
-  <si>
-    <t>Jacob Martin</t>
-  </si>
-  <si>
-    <t>Christian Bell</t>
-  </si>
-  <si>
-    <t>Kathleen Parker</t>
-  </si>
-  <si>
-    <t>Heidi Livingston</t>
-  </si>
-  <si>
-    <t>Laura Andrews</t>
-  </si>
-  <si>
-    <t>Mrs. Julia Burns</t>
-  </si>
-  <si>
-    <t>Claudia Contreras</t>
-  </si>
-  <si>
-    <t>Mark Martinez</t>
-  </si>
-  <si>
-    <t>Stephanie Richard</t>
-  </si>
-  <si>
-    <t>Jenna Barajas</t>
-  </si>
-  <si>
-    <t>Michael Montoya</t>
+    <t>P4R772JU4TEBLG4FH</t>
+  </si>
+  <si>
+    <t>X5PVSRP5595S0X916</t>
+  </si>
+  <si>
+    <t>9F8BRF77231TLAEME</t>
+  </si>
+  <si>
+    <t>UFG4F5TS8Z3JLD0AT</t>
+  </si>
+  <si>
+    <t>4D8ZHPU8141S6ABE7</t>
+  </si>
+  <si>
+    <t>PAUZHK2B6NEGVY1ZC</t>
+  </si>
+  <si>
+    <t>L4GK2FBC938RCDDPW</t>
+  </si>
+  <si>
+    <t>B8BHAVHCXN1ETZKD1</t>
+  </si>
+  <si>
+    <t>BPEJ440X3EVKJRNEY</t>
+  </si>
+  <si>
+    <t>JLH2KRB75U4NWH2RJ</t>
+  </si>
+  <si>
+    <t>49BB528NXDYMLPYYB</t>
+  </si>
+  <si>
+    <t>THVXU7FT77HL2SURE</t>
+  </si>
+  <si>
+    <t>B3WUU09S2CEVXL8YP</t>
+  </si>
+  <si>
+    <t>LY777TBA0342FPTH4</t>
+  </si>
+  <si>
+    <t>HH70R33V2DYF09AV3</t>
+  </si>
+  <si>
+    <t>49JAR1M380SAL0SAB</t>
+  </si>
+  <si>
+    <t>6VVWBWJP36P04JJTC</t>
+  </si>
+  <si>
+    <t>CSTKFDVTXWAA3B824</t>
+  </si>
+  <si>
+    <t>HR815MLF57J1U96NP</t>
+  </si>
+  <si>
+    <t>FAC23FYZ3EVF28H6T</t>
+  </si>
+  <si>
+    <t>SDFSC0DJ4P52G6Y7Y</t>
+  </si>
+  <si>
+    <t>JEHYWPP47ARLJZKM0</t>
+  </si>
+  <si>
+    <t>WGD9B9777N0X190LM</t>
+  </si>
+  <si>
+    <t>YRAWWHD09XDXU3AHU</t>
+  </si>
+  <si>
+    <t>RAHH9ZAU1JR0ZV318</t>
+  </si>
+  <si>
+    <t>E2P5TUEL9N8D7F8CG</t>
+  </si>
+  <si>
+    <t>TLY16L0L3V42N5BU3</t>
+  </si>
+  <si>
+    <t>MGM58J5P68LS4A34H</t>
+  </si>
+  <si>
+    <t>86NHD1RJ5TVGGZBD5</t>
+  </si>
+  <si>
+    <t>EZ1AAS1M7RUFKRPYT</t>
+  </si>
+  <si>
+    <t>BYGVM9YNXPT0Y2S5W</t>
+  </si>
+  <si>
+    <t>22SHELD49A518Y37P</t>
+  </si>
+  <si>
+    <t>JPVB5YVR54DHKDEFV</t>
+  </si>
+  <si>
+    <t>3Y8W0YBE5CWGJSZ76</t>
+  </si>
+  <si>
+    <t>VGBSD7XH8GFASS3EC</t>
+  </si>
+  <si>
+    <t>04JTA4400WST60XBD</t>
+  </si>
+  <si>
+    <t>4UNCRJ5K8LTN2Z6K1</t>
+  </si>
+  <si>
+    <t>LT0L2XNEX3N7CRZKG</t>
+  </si>
+  <si>
+    <t>JGEEDFJJ375AJ7BPT</t>
+  </si>
+  <si>
+    <t>6CRT48J65RTUDXWNR</t>
+  </si>
+  <si>
+    <t>J0WZ9Z1R2UT5LD425</t>
+  </si>
+  <si>
+    <t>5XYFSXWZ8E2XTDCV4</t>
+  </si>
+  <si>
+    <t>E27Z87YJ4L1F4LGF9</t>
+  </si>
+  <si>
+    <t>0DCPVA234EB9W1GWR</t>
+  </si>
+  <si>
+    <t>5MTV7KTL0KVWT5812</t>
+  </si>
+  <si>
+    <t>Y2995DUF7ADALV4UR</t>
+  </si>
+  <si>
+    <t>9KJU8S5S7W070L5LV</t>
+  </si>
+  <si>
+    <t>Haley Scott</t>
+  </si>
+  <si>
+    <t>Monica Johnson</t>
+  </si>
+  <si>
+    <t>Stephen Perez</t>
+  </si>
+  <si>
+    <t>Ashley Cunningham</t>
+  </si>
+  <si>
+    <t>Christopher Nicholson</t>
+  </si>
+  <si>
+    <t>Stephanie Armstrong</t>
+  </si>
+  <si>
+    <t>Robert Ruiz</t>
+  </si>
+  <si>
+    <t>Katie Turner</t>
+  </si>
+  <si>
+    <t>Alison Torres MD</t>
+  </si>
+  <si>
+    <t>Philip Gibson</t>
+  </si>
+  <si>
+    <t>Jose Donovan</t>
+  </si>
+  <si>
+    <t>Jay Pierce</t>
+  </si>
+  <si>
+    <t>Kayla Campos</t>
+  </si>
+  <si>
+    <t>Mary Booker</t>
+  </si>
+  <si>
+    <t>Jennifer Taylor</t>
+  </si>
+  <si>
+    <t>Daniel Finley</t>
+  </si>
+  <si>
+    <t>Heather Morris</t>
+  </si>
+  <si>
+    <t>Lisa Hernandez</t>
+  </si>
+  <si>
+    <t>Amanda Anthony</t>
+  </si>
+  <si>
+    <t>Ricky Mccarthy</t>
+  </si>
+  <si>
+    <t>Edward Cunningham</t>
+  </si>
+  <si>
+    <t>Madison Duncan</t>
+  </si>
+  <si>
+    <t>Ricky Hamilton</t>
+  </si>
+  <si>
+    <t>Patrick Burton</t>
+  </si>
+  <si>
+    <t>Kyle Villarreal</t>
+  </si>
+  <si>
+    <t>Jennifer Carr</t>
+  </si>
+  <si>
+    <t>Mark Frye</t>
+  </si>
+  <si>
+    <t>Brendan Sandoval</t>
+  </si>
+  <si>
+    <t>Tracy Rios</t>
+  </si>
+  <si>
+    <t>David Williams</t>
+  </si>
+  <si>
+    <t>Michael Reid</t>
+  </si>
+  <si>
+    <t>Nathan Giles</t>
+  </si>
+  <si>
+    <t>Matthew Rios</t>
+  </si>
+  <si>
+    <t>Brooke Gibson</t>
+  </si>
+  <si>
+    <t>Rebecca Brown</t>
+  </si>
+  <si>
+    <t>Nancy Gardner</t>
+  </si>
+  <si>
+    <t>Mr. Eric Rodriguez</t>
+  </si>
+  <si>
+    <t>Jonathan Lowe</t>
+  </si>
+  <si>
+    <t>Gabriel Bender</t>
+  </si>
+  <si>
+    <t>Susan Anderson</t>
+  </si>
+  <si>
+    <t>James Moon</t>
+  </si>
+  <si>
+    <t>Kristi Williams</t>
+  </si>
+  <si>
+    <t>Jessica Mason</t>
+  </si>
+  <si>
+    <t>Diane Brown</t>
+  </si>
+  <si>
+    <t>Brittany Russell</t>
+  </si>
+  <si>
+    <t>Francisco Thomas</t>
+  </si>
+  <si>
+    <t>Elaine Bell</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -695,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,10 +741,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -746,13 +755,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -763,13 +772,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -783,10 +792,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -800,10 +809,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -817,10 +826,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -834,10 +843,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -848,13 +857,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -865,13 +874,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -882,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -902,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -919,10 +928,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -936,10 +945,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,10 +962,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -970,10 +979,10 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -984,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1001,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1018,13 +1027,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1072,10 +1081,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,10 +1098,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1103,13 +1112,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1120,13 +1129,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,10 +1149,10 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1154,13 +1163,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1171,13 +1180,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1188,10 +1197,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>102</v>
@@ -1205,10 +1214,10 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>103</v>
@@ -1222,13 +1231,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1239,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1256,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1273,13 +1282,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1290,13 +1299,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1307,13 +1316,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1324,13 +1333,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1341,13 +1350,13 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1358,13 +1367,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1375,13 +1384,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1392,13 +1401,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1409,13 +1418,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1426,13 +1435,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1443,13 +1452,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1460,13 +1469,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1477,13 +1486,13 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1494,13 +1503,13 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1511,13 +1520,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1528,13 +1537,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1545,13 +1554,13 @@
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1562,13 +1571,13 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1579,13 +1588,13 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1596,13 +1605,13 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1613,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1630,13 +1639,13 @@
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1647,13 +1656,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1664,13 +1673,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1681,13 +1690,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1698,13 +1707,13 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1715,13 +1724,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1732,13 +1741,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1749,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1766,13 +1775,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1783,13 +1792,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1800,13 +1809,13 @@
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1817,13 +1826,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1834,13 +1843,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1851,13 +1860,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1868,13 +1877,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1885,13 +1894,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1902,13 +1911,13 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1919,13 +1928,13 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1936,13 +1945,13 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1953,13 +1962,13 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1970,13 +1979,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1987,13 +1996,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2004,13 +2013,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2021,13 +2030,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2038,13 +2047,13 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2055,13 +2064,13 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2072,13 +2081,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2089,13 +2098,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2106,13 +2115,13 @@
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2123,13 +2132,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E84" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2140,13 +2149,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2157,13 +2166,13 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E86" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2174,13 +2183,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E87" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2191,13 +2200,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E88" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2208,13 +2217,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2225,13 +2234,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2242,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2259,13 +2268,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2276,13 +2285,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2293,13 +2302,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E94" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2310,13 +2319,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2327,13 +2336,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2344,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2361,13 +2370,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2378,13 +2387,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2395,13 +2404,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2412,10 +2421,10 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E101" t="s">
         <v>102</v>
@@ -2429,10 +2438,10 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E102" t="s">
         <v>103</v>
@@ -2446,13 +2455,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D103" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2463,13 +2472,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D104" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2480,13 +2489,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D105" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2497,13 +2506,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2514,13 +2523,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2531,13 +2540,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2548,13 +2557,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D109" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2565,13 +2574,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E110" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2582,13 +2591,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D111" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E111" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2599,13 +2608,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E112" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2616,13 +2625,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E113" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2633,13 +2642,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E114" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2650,13 +2659,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2667,13 +2676,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D116" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2684,13 +2693,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E117" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2701,13 +2710,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D118" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E118" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2718,13 +2727,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D119" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E119" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2735,13 +2744,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D120" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E120" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2752,13 +2761,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D121" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E121" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2769,13 +2778,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D122" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2786,13 +2795,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2803,13 +2812,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D124" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E124" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2820,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D125" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E125" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2837,13 +2846,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D126" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E126" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2854,13 +2863,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D127" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E127" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2871,13 +2880,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D128" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E128" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2888,13 +2897,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D129" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E129" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2905,13 +2914,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D130" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E130" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2922,10 +2931,10 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E131" t="s">
         <v>102</v>
@@ -2939,13 +2948,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D132" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E132" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2956,13 +2965,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2973,13 +2982,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D134" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E134" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2990,13 +2999,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D135" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E135" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3007,13 +3016,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E136" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3024,13 +3033,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E137" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3041,13 +3050,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E138" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3058,13 +3067,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D139" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3075,13 +3084,13 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D140" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E140" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3092,13 +3101,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D141" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E141" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3109,13 +3118,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D142" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E142" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3126,13 +3135,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D143" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E143" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3143,13 +3152,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D144" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E144" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3160,13 +3169,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D145" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E145" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3177,13 +3186,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D146" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E146" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3194,13 +3203,13 @@
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D147" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E147" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3211,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E148" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3228,13 +3237,13 @@
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3245,13 +3254,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E150" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3262,13 +3271,13 @@
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E151" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3279,13 +3288,13 @@
         <v>7</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E152" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3296,13 +3305,13 @@
         <v>7</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E153" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3313,13 +3322,13 @@
         <v>7</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E154" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3330,13 +3339,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3347,13 +3356,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E156" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3364,13 +3373,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E157" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3381,13 +3390,13 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E158" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3398,13 +3407,13 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E159" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3415,13 +3424,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D160" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E160" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3432,13 +3441,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D161" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E161" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3449,13 +3458,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E162" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3466,13 +3475,13 @@
         <v>7</v>
       </c>
       <c r="C163" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D163" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E163" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3483,13 +3492,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D164" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E164" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3500,13 +3509,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D165" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E165" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3517,13 +3526,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E166" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3534,13 +3543,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E167" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3551,13 +3560,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E168" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3568,13 +3577,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E169" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3585,13 +3594,13 @@
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E170" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3602,13 +3611,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D171" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E171" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3619,10 +3628,10 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D172" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E172" t="s">
         <v>102</v>
@@ -3636,13 +3645,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D173" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E173" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3653,13 +3662,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D174" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E174" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3670,13 +3679,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D175" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E175" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3687,13 +3696,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D176" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E176" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3704,13 +3713,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D177" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E177" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3721,13 +3730,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D178" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E178" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3738,13 +3747,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D179" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E179" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3755,13 +3764,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D180" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E180" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3772,13 +3781,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D181" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E181" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3789,13 +3798,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D182" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E182" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3806,13 +3815,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D183" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E183" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3823,13 +3832,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D184" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E184" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3840,13 +3849,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D185" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E185" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3857,13 +3866,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D186" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E186" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3874,13 +3883,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D187" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E187" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3891,13 +3900,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D188" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E188" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3908,13 +3917,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D189" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E189" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3925,13 +3934,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D190" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E190" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3942,13 +3951,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D191" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E191" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3959,13 +3968,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D192" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E192" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3976,13 +3985,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D193" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E193" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3993,13 +4002,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D194" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E194" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4010,13 +4019,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D195" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E195" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4027,13 +4036,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D196" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E196" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4044,13 +4053,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D197" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E197" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4061,13 +4070,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D198" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E198" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4078,13 +4087,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D199" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E199" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4095,13 +4104,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D200" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E200" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4112,13 +4121,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D201" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E201" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4129,13 +4138,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D202" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E202" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4146,13 +4155,13 @@
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D203" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="E203" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4163,13 +4172,13 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D204" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E204" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4180,13 +4189,13 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D205" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E205" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4197,506 +4206,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D206" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E206" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" t="s">
-        <v>6</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" t="s">
-        <v>46</v>
-      </c>
-      <c r="D207" t="s">
-        <v>91</v>
-      </c>
-      <c r="E207" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" t="s">
-        <v>6</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" t="s">
-        <v>46</v>
-      </c>
-      <c r="D208" t="s">
-        <v>91</v>
-      </c>
-      <c r="E208" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" t="s">
-        <v>6</v>
-      </c>
-      <c r="B209" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" t="s">
-        <v>47</v>
-      </c>
-      <c r="D209" t="s">
-        <v>92</v>
-      </c>
-      <c r="E209" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" t="s">
-        <v>47</v>
-      </c>
-      <c r="D210" t="s">
-        <v>92</v>
-      </c>
-      <c r="E210" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" t="s">
-        <v>47</v>
-      </c>
-      <c r="D211" t="s">
-        <v>92</v>
-      </c>
-      <c r="E211" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" t="s">
-        <v>6</v>
-      </c>
-      <c r="B212" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" t="s">
-        <v>47</v>
-      </c>
-      <c r="D212" t="s">
-        <v>92</v>
-      </c>
-      <c r="E212" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" t="s">
-        <v>6</v>
-      </c>
-      <c r="B213" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" t="s">
-        <v>47</v>
-      </c>
-      <c r="D213" t="s">
-        <v>92</v>
-      </c>
-      <c r="E213" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" t="s">
-        <v>6</v>
-      </c>
-      <c r="B214" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" t="s">
-        <v>47</v>
-      </c>
-      <c r="D214" t="s">
-        <v>92</v>
-      </c>
-      <c r="E214" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" t="s">
-        <v>6</v>
-      </c>
-      <c r="B215" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" t="s">
-        <v>47</v>
-      </c>
-      <c r="D215" t="s">
-        <v>92</v>
-      </c>
-      <c r="E215" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" t="s">
-        <v>48</v>
-      </c>
-      <c r="D216" t="s">
-        <v>93</v>
-      </c>
-      <c r="E216" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" t="s">
-        <v>48</v>
-      </c>
-      <c r="D217" t="s">
-        <v>93</v>
-      </c>
-      <c r="E217" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" t="s">
-        <v>49</v>
-      </c>
-      <c r="D218" t="s">
-        <v>94</v>
-      </c>
-      <c r="E218" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" t="s">
-        <v>49</v>
-      </c>
-      <c r="D219" t="s">
-        <v>94</v>
-      </c>
-      <c r="E219" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" t="s">
-        <v>49</v>
-      </c>
-      <c r="D220" t="s">
-        <v>94</v>
-      </c>
-      <c r="E220" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" t="s">
-        <v>49</v>
-      </c>
-      <c r="D221" t="s">
-        <v>94</v>
-      </c>
-      <c r="E221" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" t="s">
-        <v>6</v>
-      </c>
-      <c r="B222" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" t="s">
-        <v>49</v>
-      </c>
-      <c r="D222" t="s">
-        <v>94</v>
-      </c>
-      <c r="E222" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" t="s">
-        <v>50</v>
-      </c>
-      <c r="D223" t="s">
-        <v>95</v>
-      </c>
-      <c r="E223" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" t="s">
-        <v>6</v>
-      </c>
-      <c r="B224" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" t="s">
-        <v>50</v>
-      </c>
-      <c r="D224" t="s">
-        <v>95</v>
-      </c>
-      <c r="E224" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>6</v>
-      </c>
-      <c r="B225" t="s">
-        <v>7</v>
-      </c>
-      <c r="C225" t="s">
-        <v>51</v>
-      </c>
-      <c r="D225" t="s">
-        <v>96</v>
-      </c>
-      <c r="E225" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" t="s">
-        <v>6</v>
-      </c>
-      <c r="B226" t="s">
-        <v>7</v>
-      </c>
-      <c r="C226" t="s">
-        <v>51</v>
-      </c>
-      <c r="D226" t="s">
-        <v>96</v>
-      </c>
-      <c r="E226" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" t="s">
-        <v>6</v>
-      </c>
-      <c r="B227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" t="s">
-        <v>51</v>
-      </c>
-      <c r="D227" t="s">
-        <v>96</v>
-      </c>
-      <c r="E227" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" t="s">
-        <v>6</v>
-      </c>
-      <c r="B228" t="s">
-        <v>7</v>
-      </c>
-      <c r="C228" t="s">
-        <v>52</v>
-      </c>
-      <c r="D228" t="s">
-        <v>97</v>
-      </c>
-      <c r="E228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" t="s">
-        <v>6</v>
-      </c>
-      <c r="B229" t="s">
-        <v>7</v>
-      </c>
-      <c r="C229" t="s">
-        <v>52</v>
-      </c>
-      <c r="D229" t="s">
-        <v>97</v>
-      </c>
-      <c r="E229" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" t="s">
-        <v>6</v>
-      </c>
-      <c r="B230" t="s">
-        <v>7</v>
-      </c>
-      <c r="C230" t="s">
-        <v>53</v>
-      </c>
-      <c r="D230" t="s">
-        <v>98</v>
-      </c>
-      <c r="E230" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" t="s">
-        <v>6</v>
-      </c>
-      <c r="B231" t="s">
-        <v>7</v>
-      </c>
-      <c r="C231" t="s">
-        <v>53</v>
-      </c>
-      <c r="D231" t="s">
-        <v>98</v>
-      </c>
-      <c r="E231" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" t="s">
-        <v>6</v>
-      </c>
-      <c r="B232" t="s">
-        <v>7</v>
-      </c>
-      <c r="C232" t="s">
-        <v>53</v>
-      </c>
-      <c r="D232" t="s">
-        <v>98</v>
-      </c>
-      <c r="E232" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" t="s">
-        <v>6</v>
-      </c>
-      <c r="B233" t="s">
-        <v>7</v>
-      </c>
-      <c r="C233" t="s">
-        <v>53</v>
-      </c>
-      <c r="D233" t="s">
-        <v>98</v>
-      </c>
-      <c r="E233" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" t="s">
-        <v>6</v>
-      </c>
-      <c r="B234" t="s">
-        <v>7</v>
-      </c>
-      <c r="C234" t="s">
-        <v>53</v>
-      </c>
-      <c r="D234" t="s">
-        <v>98</v>
-      </c>
-      <c r="E234" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" t="s">
-        <v>6</v>
-      </c>
-      <c r="B235" t="s">
-        <v>7</v>
-      </c>
-      <c r="C235" t="s">
-        <v>53</v>
-      </c>
-      <c r="D235" t="s">
-        <v>98</v>
-      </c>
-      <c r="E235" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
